--- a/Test_plan_.xlsx
+++ b/Test_plan_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandra\kurs_qa\final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandra\kurs_qa\final_project\documentation\Demoqa_site_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="195">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -574,40 +574,13 @@
     <t>TC 14</t>
   </si>
   <si>
-    <t>5. Click " Add To Your Collection " button</t>
-  </si>
-  <si>
-    <t>Alert message apears</t>
-  </si>
-  <si>
-    <t>" Book added to your collection. "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allows user to add book to  collection </t>
-  </si>
-  <si>
     <t xml:space="preserve">allows user to select books </t>
   </si>
   <si>
     <t>allows user to log out</t>
   </si>
   <si>
-    <t>TC 15</t>
-  </si>
-  <si>
-    <t>allows user to go back to book Book Store</t>
-  </si>
-  <si>
-    <t>5. Click " Back To Book Store " button</t>
-  </si>
-  <si>
-    <t>Book Store Page opens</t>
-  </si>
-  <si>
     <t>4. Click Log out button</t>
-  </si>
-  <si>
-    <t>TC 16</t>
   </si>
   <si>
     <t>Log in button visible</t>
@@ -1517,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1506,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B1" s="107" t="s">
         <v>25</v>
@@ -1855,7 +1828,7 @@
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="109"/>
       <c r="B35" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C35" s="109"/>
       <c r="D35" s="91"/>
@@ -1864,7 +1837,7 @@
       <c r="A36" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="84" t="s">
         <v>171</v>
       </c>
       <c r="C36" s="108"/>
@@ -1872,7 +1845,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="58" t="s">
         <v>126</v>
       </c>
       <c r="C37" s="109" t="s">
@@ -1882,73 +1855,65 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="111"/>
-      <c r="B38" s="17" t="s">
-        <v>185</v>
+      <c r="B38" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="C38" s="111"/>
       <c r="D38" s="91"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="109"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="91"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="109" t="s">
-        <v>7</v>
-      </c>
+      <c r="A40" s="91"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="91"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="109"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="91"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="108"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="91"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="109" t="s">
-        <v>7</v>
-      </c>
+      <c r="A43" s="91"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="91"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
-      <c r="B44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="111"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="91"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="91"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE151"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B148"/>
+    <sheetView topLeftCell="A88" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,7 +4024,7 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C122" s="47"/>
       <c r="D122" s="57" t="s">
@@ -4129,7 +4094,7 @@
       <c r="H126" s="41"/>
     </row>
     <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="68" t="s">
         <v>181</v>
       </c>
@@ -4152,8 +4117,9 @@
         <v>140</v>
       </c>
       <c r="H129" s="27"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="58" t="s">
         <v>126</v>
@@ -4167,164 +4133,147 @@
       <c r="E130" s="22"/>
       <c r="F130" s="17"/>
       <c r="G130" s="22"/>
-      <c r="H130" s="17"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C131" s="47"/>
       <c r="D131" s="57" t="s">
         <v>136</v>
       </c>
       <c r="E131" s="22"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="22"/>
+      <c r="F131" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="H131" s="17"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F132" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="H132" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="25"/>
+      <c r="I131" s="13"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="67"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="79"/>
+      <c r="D132" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E132" s="90"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="13"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="47"/>
-      <c r="D133" s="57" t="s">
-        <v>182</v>
-      </c>
+      <c r="D133" s="49"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="H133" s="25"/>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="67"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="79"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="90"/>
-      <c r="F134" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G134" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="H134" s="43"/>
-    </row>
-    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="B138" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C138" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G138" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="H138" s="27"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
-      <c r="B139" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D139" s="57" t="s">
-        <v>129</v>
-      </c>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="13"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="13"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="91"/>
+      <c r="G135" s="91"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="91"/>
+      <c r="F136" s="91"/>
+      <c r="G136" s="91"/>
+      <c r="H136" s="13"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="91"/>
+      <c r="F137" s="91"/>
+      <c r="G137" s="91"/>
+      <c r="H137" s="13"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="49"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="56"/>
+      <c r="H138" s="47"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="47"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="49"/>
       <c r="E139" s="22"/>
-      <c r="F139" s="17"/>
+      <c r="F139" s="22"/>
       <c r="G139" s="22"/>
-      <c r="H139" s="17"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
-      <c r="B140" s="25" t="s">
-        <v>189</v>
-      </c>
+      <c r="H139" s="22"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="47"/>
-      <c r="D140" s="57" t="s">
-        <v>136</v>
-      </c>
+      <c r="D140" s="49"/>
       <c r="E140" s="22"/>
-      <c r="F140" s="17"/>
+      <c r="F140" s="22"/>
       <c r="G140" s="22"/>
-      <c r="H140" s="17"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="25"/>
+      <c r="H140" s="22"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="47"/>
-      <c r="D141" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="E141" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="H141" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="67"/>
-      <c r="B142" s="43"/>
-      <c r="C142" s="79"/>
-      <c r="D142" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E142" s="90"/>
-      <c r="F142" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G142" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H142" s="43"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D141" s="49"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="22"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="47"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="47"/>
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
@@ -4334,78 +4283,55 @@
       <c r="G143" s="19"/>
       <c r="H143" s="47"/>
     </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="91"/>
+      <c r="F144" s="91"/>
+      <c r="G144" s="91"/>
+      <c r="H144" s="13"/>
+    </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="B146" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C146" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G146" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="H146" s="27"/>
+      <c r="A146" s="49"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="56"/>
+      <c r="H146" s="47"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
-      <c r="B147" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C147" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D147" s="57" t="s">
-        <v>129</v>
-      </c>
+      <c r="A147" s="47"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="49"/>
       <c r="E147" s="22"/>
-      <c r="F147" s="17"/>
+      <c r="F147" s="22"/>
       <c r="G147" s="22"/>
-      <c r="H147" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="H147" s="22"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
-      <c r="B148" s="25" t="s">
-        <v>187</v>
-      </c>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="47"/>
-      <c r="D148" s="57" t="s">
-        <v>136</v>
-      </c>
+      <c r="D148" s="49"/>
       <c r="E148" s="22"/>
-      <c r="F148" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H148" s="17"/>
-    </row>
-    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="67"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="79"/>
-      <c r="D149" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="E149" s="90"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="21"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="22"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="47"/>
@@ -4454,11 +4380,9 @@
     <hyperlink ref="G27" r:id="rId23"/>
     <hyperlink ref="E120" r:id="rId24"/>
     <hyperlink ref="E129" r:id="rId25"/>
-    <hyperlink ref="E146" r:id="rId26"/>
-    <hyperlink ref="E138" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -4466,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4524,7 +4448,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="12"/>
       <c r="C2" s="58" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>27</v>
@@ -4541,20 +4465,20 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D3" s="101"/>
       <c r="E3" s="35" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>147</v>
@@ -4575,10 +4499,10 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="84" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D4" s="102"/>
       <c r="E4" s="35" t="s">
@@ -4601,14 +4525,14 @@
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="58" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
         <v>146</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
